--- a/sql/Wedding Guest List_v2_161007.xlsx
+++ b/sql/Wedding Guest List_v2_161007.xlsx
@@ -2454,7 +2454,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E71" sqref="E71"/>
+      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2979,93 +2979,93 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>394</v>
+        <v>330</v>
       </c>
       <c r="D25" s="4">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>493</v>
+        <v>68</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>394</v>
+        <v>330</v>
       </c>
       <c r="D26" s="4">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>493</v>
+        <v>68</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>235</v>
+        <v>164</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>235</v>
+        <v>164</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>394</v>
+        <v>341</v>
       </c>
       <c r="D27" s="4">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>493</v>
+        <v>68</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H27" s="2">
+        <v>141</v>
+      </c>
+      <c r="H27" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>238</v>
+        <v>166</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>395</v>
+        <v>166</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>394</v>
+        <v>342</v>
       </c>
       <c r="D28" s="4">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>493</v>
+        <v>68</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H28" s="2">
+        <v>140</v>
+      </c>
+      <c r="H28" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3346,13 +3346,13 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D42" s="4">
         <v>14</v>
@@ -3889,26 +3889,25 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="D69" s="5">
-        <v>45</v>
+        <v>370</v>
+      </c>
+      <c r="D69" s="4">
+        <v>43</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>493</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G69" s="5"/>
+        <v>137</v>
+      </c>
       <c r="H69" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -3936,16 +3935,16 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="D71" s="4">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>493</v>
@@ -3959,25 +3958,26 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>147</v>
+        <v>200</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="D72" s="4">
-        <v>57</v>
+        <v>372</v>
+      </c>
+      <c r="D72" s="5">
+        <v>45</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>493</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>137</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G72" s="5"/>
       <c r="H72" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -4140,7 +4140,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>220</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>165</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>240</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>201</v>
       </c>
@@ -4220,8 +4220,11 @@
         <v>140</v>
       </c>
       <c r="G84" s="5"/>
-    </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H84" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>151</v>
       </c>
@@ -4241,7 +4244,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>178</v>
       </c>
@@ -4261,7 +4264,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>189</v>
       </c>
@@ -4281,7 +4284,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>202</v>
       </c>
@@ -4304,7 +4307,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>255</v>
       </c>
@@ -4324,7 +4327,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>213</v>
       </c>
@@ -4344,7 +4347,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>214</v>
       </c>
@@ -4364,7 +4367,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>491</v>
       </c>
@@ -4384,7 +4387,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>218</v>
       </c>
@@ -4404,7 +4407,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>219</v>
       </c>
@@ -4424,7 +4427,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>167</v>
       </c>
@@ -4444,7 +4447,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>247</v>
       </c>
@@ -4846,39 +4849,42 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="D116" s="4">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>493</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="H116" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="D117" s="4">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>493</v>
@@ -4892,28 +4898,25 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="D118" s="4">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>493</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G118" s="4" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="H118" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -5148,47 +5151,47 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>341</v>
+        <v>394</v>
       </c>
       <c r="D130" s="4">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>68</v>
+        <v>493</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H130" s="4">
+        <v>137</v>
+      </c>
+      <c r="H130" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>165</v>
+        <v>234</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>173</v>
+        <v>234</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>341</v>
+        <v>394</v>
       </c>
       <c r="D131" s="4">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>68</v>
+        <v>493</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H131" s="4">
+        <v>137</v>
+      </c>
+      <c r="H131" s="2">
         <v>1</v>
       </c>
     </row>
@@ -5563,47 +5566,47 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
-        <v>146</v>
+        <v>235</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>146</v>
+        <v>235</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>330</v>
+        <v>394</v>
       </c>
       <c r="D150" s="4">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>68</v>
+        <v>493</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="H150" s="4">
+      <c r="H150" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
-        <v>147</v>
+        <v>238</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>147</v>
+        <v>395</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>330</v>
+        <v>394</v>
       </c>
       <c r="D151" s="4">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>68</v>
+        <v>493</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="H151" s="4">
+      <c r="H151" s="2">
         <v>1</v>
       </c>
     </row>
@@ -5694,8 +5697,8 @@
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <sortState ref="A2:H155">
-      <sortCondition ref="C1:C155"/>
+    <sortState ref="A6:H151">
+      <sortCondition ref="D1:D155"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sql/Wedding Guest List_v2_161007.xlsx
+++ b/sql/Wedding Guest List_v2_161007.xlsx
@@ -2449,12 +2449,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" filterMode="1"/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2496,7 +2496,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>146</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>171</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>256</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>257</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>229</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>181</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>190</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>157</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>158</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>168</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>154</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>156</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>206</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>207</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>469</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>470</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>354</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>254</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>251</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>471</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>216</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>204</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>246</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>614</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>223</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>224</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>197</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>242</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>149</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>205</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>203</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>163</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>179</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>152</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>153</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>194</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>230</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>185</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>167</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>175</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>407</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>198</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>221</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>171</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>186</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>187</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>159</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>160</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>3</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>161</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>251</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>171</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>251</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>182</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>169</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>193</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>248</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>119</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>120</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>150</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>151</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>145</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>178</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>251</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>196</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>192</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>191</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>167</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>220</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>165</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>240</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>151</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>178</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>189</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>202</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>255</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>213</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>214</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>491</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>218</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>219</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>167</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>247</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>167</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>250</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>178</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>184</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>150</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>192</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>160</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>167</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>163</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>487</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>127</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>154</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>222</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>215</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>212</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>251</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>210</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>243</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>177</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>146</v>
       </c>
@@ -4940,7 +4940,7 @@
       </c>
       <c r="G119" s="5"/>
     </row>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>677</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>146</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>163</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>211</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>228</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>176</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>2</v>
       </c>
@@ -5126,7 +5126,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>23</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>169</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>170</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>176</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>159</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>2</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>208</v>
       </c>
@@ -5315,7 +5315,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>209</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>195</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>181</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>174</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>179</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>159</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>183</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>149</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>148</v>
       </c>
@@ -5501,7 +5501,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>167</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>188</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>185</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>252</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>237</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>157</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
         <v>225</v>
       </c>
@@ -5692,11 +5692,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H155">
-    <filterColumn colId="7">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
     <sortState ref="A6:H151">
       <sortCondition ref="D1:D155"/>
     </sortState>
@@ -5712,7 +5707,7 @@
   <dimension ref="A1:J152"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>

--- a/sql/Wedding Guest List_v2_161007.xlsx
+++ b/sql/Wedding Guest List_v2_161007.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6720" windowHeight="5985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6720" windowHeight="5985" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ListMaster" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Address!$A$1:$J$154</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ListMaster!$A$1:$H$155</definedName>
     <definedName name="City">#REF!</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="Name">#REF!</definedName>
     <definedName name="State">#REF!</definedName>
     <definedName name="Street">#REF!</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="691">
   <si>
     <t>Valerie White</t>
   </si>
@@ -2105,6 +2106,9 @@
   </si>
   <si>
     <t>5340 West Kennedy Boulevard</t>
+  </si>
+  <si>
+    <t>Apartment 94A</t>
   </si>
 </sst>
 </file>
@@ -2160,7 +2164,29 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2169,7 +2195,12 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FF000000"/>
@@ -2452,9 +2483,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H155"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5706,9 +5737,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J152"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8503,6 +8534,9 @@
       <c r="F88" t="s">
         <v>495</v>
       </c>
+      <c r="G88" t="s">
+        <v>690</v>
+      </c>
       <c r="H88" t="s">
         <v>496</v>
       </c>
@@ -9054,7 +9088,7 @@
   </sheetData>
   <autoFilter ref="A1:J154"/>
   <conditionalFormatting sqref="D1:D90 E89">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
